--- a/public/assets/excel/sample_delegates.xlsx
+++ b/public/assets/excel/sample_delegates.xlsx
@@ -236,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -262,14 +262,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -277,16 +269,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Noto Sans Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -342,19 +328,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,395 +599,350 @@
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="28.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="35.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="9.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="28.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="34.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="35.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="9.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="32" style="2" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2"/>
+      <c r="AD1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="3" t="n">
+      <c r="X4" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/assets/excel/sample_delegates.xlsx
+++ b/public/assets/excel/sample_delegates.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t xml:space="preserve">delegate_name_en</t>
   </si>
@@ -82,9 +82,6 @@
     <t xml:space="preserve">arrival_date_time</t>
   </si>
   <si>
-    <t xml:space="preserve">arrival_status</t>
-  </si>
-  <si>
     <t xml:space="preserve">arrival_comment</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t xml:space="preserve">departure_date_time</t>
   </si>
   <si>
-    <t xml:space="preserve">departure_status</t>
-  </si>
-  <si>
     <t xml:space="preserve">departure_comment</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023-10-15 14:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confirmed</t>
   </si>
   <si>
     <t xml:space="preserve">VIP arrival</t>
@@ -323,16 +314,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -596,13 +583,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="19.99"/>
@@ -630,123 +617,117 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="21.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="9.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="32" style="2" width="8.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="32" style="1" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>1</v>
@@ -755,81 +736,75 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="Q2" s="1" t="n">
         <v>101</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>2</v>
@@ -838,108 +813,96 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="Q4" s="1" t="n">
         <v>103</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>104</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/public/assets/excel/sample_delegates.xlsx
+++ b/public/assets/excel/sample_delegates.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">delegate_designation_ar</t>
   </si>
   <si>
-    <t xml:space="preserve">delegate_gender_id</t>
+    <t xml:space="preserve">delegate_gender_code</t>
   </si>
   <si>
     <t xml:space="preserve">delegation_code</t>
@@ -49,10 +49,10 @@
     <t xml:space="preserve">delegate_parent_code</t>
   </si>
   <si>
-    <t xml:space="preserve">delegate_relationship_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delegate_internal_ranking_id</t>
+    <t xml:space="preserve">delegate_relationship_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delegate_internal_ranking_code</t>
   </si>
   <si>
     <t xml:space="preserve">delegate_team_head</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">arrival_mode</t>
   </si>
   <si>
-    <t xml:space="preserve">arrival_airport_id</t>
+    <t xml:space="preserve">arrival_airport_code</t>
   </si>
   <si>
     <t xml:space="preserve">arrival_flight_no</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">departure_mode</t>
   </si>
   <si>
-    <t xml:space="preserve">departure_airport_id</t>
+    <t xml:space="preserve">departure_airport_code</t>
   </si>
   <si>
     <t xml:space="preserve">departure_flight_no</t>
@@ -585,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/assets/excel/sample_delegates.xlsx
+++ b/public/assets/excel/sample_delegates.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+  <si>
+    <t xml:space="preserve">delegation_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import_code</t>
+  </si>
   <si>
     <t xml:space="preserve">delegate_name_en</t>
   </si>
@@ -43,9 +49,6 @@
     <t xml:space="preserve">delegate_gender_code</t>
   </si>
   <si>
-    <t xml:space="preserve">delegation_code</t>
-  </si>
-  <si>
     <t xml:space="preserve">delegate_parent_code</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t xml:space="preserve">departure_comment</t>
   </si>
   <si>
+    <t xml:space="preserve">DA23-0001</t>
+  </si>
+  <si>
     <t xml:space="preserve">John Smith</t>
   </si>
   <si>
@@ -121,9 +127,6 @@
     <t xml:space="preserve">مفوض</t>
   </si>
   <si>
-    <t xml:space="preserve">DA23-001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
@@ -151,6 +154,37 @@
     <t xml:space="preserve">2023-10-20 16:45:00</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DA23-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Sarah Johnson</t>
   </si>
   <si>
@@ -184,6 +218,37 @@
     <t xml:space="preserve">2023-10-20 17:00:00</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DA23-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Ahmed Hassan</t>
   </si>
   <si>
@@ -200,9 +265,6 @@
   </si>
   <si>
     <t xml:space="preserve">وزير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA23-002</t>
   </si>
   <si>
     <t xml:space="preserve">EG101</t>
@@ -227,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -264,6 +326,12 @@
       <name val="Noto Sans Devanagari"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -314,7 +382,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,6 +392,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,10 +655,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -702,56 +774,78 @@
       <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2"/>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
+      <c r="L2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>101</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>38</v>
@@ -763,149 +857,327 @@
         <v>40</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>2</v>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>65</v>
-      </c>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
